--- a/LISTE-PARRAIN-EAIN.xlsx
+++ b/LISTE-PARRAIN-EAIN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="228"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <t>AGNERO JEAN-MARC</t>
   </si>
   <si>
-    <t>ALOU ISAAC</t>
+    <t>AHOULOU OTHNIEL</t>
   </si>
   <si>
     <t>ATTOUMGBRE YAO</t>
@@ -125,7 +125,7 @@
     <t>NOM &amp; PRENOM</t>
   </si>
   <si>
-    <t>AHOULOU OTHNIEL</t>
+    <t>ALLOU ISAAC</t>
   </si>
 </sst>
 </file>
@@ -141,15 +141,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,17 +169,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -181,10 +275,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="C2:C35" totalsRowShown="0">
-  <autoFilter ref="C2:C35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="A1:A34" totalsRowShown="0" dataDxfId="1">
+  <autoFilter ref="A1:A34"/>
+  <sortState ref="A2:A34">
+    <sortCondition ref="A1:A34"/>
+  </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="NOM &amp; PRENOM"/>
+    <tableColumn id="1" name="NOM &amp; PRENOM" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -453,192 +550,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:C35"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>